--- a/03_BOM/CAM_v130.xlsx
+++ b/03_BOM/CAM_v130.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\18_CAM_V130\SpaceLiin_CAM_V1.0.2_HW\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DBE377-F721-4987-A419-EEE4F6E15B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68699B7C-BB30-432F-9C34-D441FE3E755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{53A21D43-2DE8-4CAA-9583-5E5F953986DB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -254,12 +254,6 @@
     <t>TP8M475M010C</t>
   </si>
   <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>150060YS75000</t>
-  </si>
-  <si>
     <t>Molex</t>
   </si>
   <si>
@@ -306,6 +300,9 @@
   </si>
   <si>
     <t>DNP</t>
+  </si>
+  <si>
+    <t>DO2, DO3 tìm loại Von thấp</t>
   </si>
 </sst>
 </file>
@@ -321,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +331,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -358,16 +361,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8EED8F-3057-423A-BC15-5F39F56DC7FF}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,9 +731,10 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -758,7 +774,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -778,7 +794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -798,7 +814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -811,14 +827,13 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -832,13 +847,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -872,13 +887,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -892,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -912,13 +927,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -932,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -952,13 +967,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -972,13 +987,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -992,13 +1007,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1012,13 +1027,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
@@ -1052,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>44</v>
@@ -1072,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
@@ -1092,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>50</v>
@@ -1112,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>52</v>
@@ -1132,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1152,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>57</v>
@@ -1172,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>60</v>
@@ -1192,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>63</v>
